--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H2">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I2">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J2">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>32.5761496508777</v>
+        <v>0.2176863333333333</v>
       </c>
       <c r="N2">
-        <v>32.5761496508777</v>
+        <v>0.6530590000000001</v>
       </c>
       <c r="O2">
-        <v>0.4922612345434254</v>
+        <v>0.002999824441144956</v>
       </c>
       <c r="P2">
-        <v>0.4922612345434254</v>
+        <v>0.002999824441144956</v>
       </c>
       <c r="Q2">
-        <v>117.0312785803666</v>
+        <v>0.8526184472324446</v>
       </c>
       <c r="R2">
-        <v>117.0312785803666</v>
+        <v>7.673566025092001</v>
       </c>
       <c r="S2">
-        <v>0.03100166636645445</v>
+        <v>0.0001752682421744657</v>
       </c>
       <c r="T2">
-        <v>0.03100166636645445</v>
+        <v>0.0001752682421744657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.59254484752201</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H3">
-        <v>3.59254484752201</v>
+        <v>11.750188</v>
       </c>
       <c r="I3">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J3">
-        <v>0.06297807788014964</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.600399231937</v>
+        <v>33.166404</v>
       </c>
       <c r="N3">
-        <v>33.600399231937</v>
+        <v>99.499212</v>
       </c>
       <c r="O3">
-        <v>0.5077387654565746</v>
+        <v>0.4570493141236298</v>
       </c>
       <c r="P3">
-        <v>0.5077387654565746</v>
+        <v>0.4570493141236298</v>
       </c>
       <c r="Q3">
-        <v>120.7109411353778</v>
+        <v>129.903827427984</v>
       </c>
       <c r="R3">
-        <v>120.7109411353778</v>
+        <v>1169.134446851856</v>
       </c>
       <c r="S3">
-        <v>0.03197641151369519</v>
+        <v>0.02670363931127892</v>
       </c>
       <c r="T3">
-        <v>0.03197641151369519</v>
+        <v>0.02670363931127892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,60 +652,60 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.3801513642568</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H4">
-        <v>48.3801513642568</v>
+        <v>11.750188</v>
       </c>
       <c r="I4">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J4">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.5761496508777</v>
+        <v>37.54595066666666</v>
       </c>
       <c r="N4">
-        <v>32.5761496508777</v>
+        <v>112.637852</v>
       </c>
       <c r="O4">
-        <v>0.4922612345434254</v>
+        <v>0.5174016152103689</v>
       </c>
       <c r="P4">
-        <v>0.4922612345434254</v>
+        <v>0.5174016152103689</v>
       </c>
       <c r="Q4">
-        <v>1576.039050974144</v>
+        <v>147.0573263240196</v>
       </c>
       <c r="R4">
-        <v>1576.039050974144</v>
+        <v>1323.515936916176</v>
       </c>
       <c r="S4">
-        <v>0.417493830978283</v>
+        <v>0.03022979290132687</v>
       </c>
       <c r="T4">
-        <v>0.417493830978283</v>
+        <v>0.03022979290132686</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.3801513642568</v>
+        <v>3.916729333333334</v>
       </c>
       <c r="H5">
-        <v>48.3801513642568</v>
+        <v>11.750188</v>
       </c>
       <c r="I5">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845182</v>
       </c>
       <c r="J5">
-        <v>0.8481143784671781</v>
+        <v>0.05842616646845181</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>33.600399231937</v>
+        <v>1.636316666666667</v>
       </c>
       <c r="N5">
-        <v>33.600399231937</v>
+        <v>4.90895</v>
       </c>
       <c r="O5">
-        <v>0.5077387654565746</v>
+        <v>0.02254924622485646</v>
       </c>
       <c r="P5">
-        <v>0.5077387654565746</v>
+        <v>0.02254924622485645</v>
       </c>
       <c r="Q5">
-        <v>1625.59240074057</v>
+        <v>6.409009486955556</v>
       </c>
       <c r="R5">
-        <v>1625.59240074057</v>
+        <v>57.6810853826</v>
       </c>
       <c r="S5">
-        <v>0.4306205474888951</v>
+        <v>0.001317466013671572</v>
       </c>
       <c r="T5">
-        <v>0.4306205474888951</v>
+        <v>0.001317466013671572</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +776,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.07167491620001</v>
+        <v>48.53546666666667</v>
       </c>
       <c r="H6">
-        <v>5.07167491620001</v>
+        <v>145.6064</v>
       </c>
       <c r="I6">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="J6">
-        <v>0.08890754365267219</v>
+        <v>0.7240074597335789</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>32.5761496508777</v>
+        <v>0.2176863333333333</v>
       </c>
       <c r="N6">
-        <v>32.5761496508777</v>
+        <v>0.6530590000000001</v>
       </c>
       <c r="O6">
-        <v>0.4922612345434254</v>
+        <v>0.002999824441144956</v>
       </c>
       <c r="P6">
-        <v>0.4922612345434254</v>
+        <v>0.002999824441144956</v>
       </c>
       <c r="Q6">
-        <v>165.2156410507341</v>
+        <v>10.56550777528889</v>
       </c>
       <c r="R6">
-        <v>165.2156410507341</v>
+        <v>95.08956997760001</v>
       </c>
       <c r="S6">
-        <v>0.0437657371986879</v>
+        <v>0.002171895273280063</v>
       </c>
       <c r="T6">
-        <v>0.0437657371986879</v>
+        <v>0.002171895273280063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,55 +838,427 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>48.53546666666667</v>
+      </c>
+      <c r="H7">
+        <v>145.6064</v>
+      </c>
+      <c r="I7">
+        <v>0.7240074597335789</v>
+      </c>
+      <c r="J7">
+        <v>0.7240074597335789</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>33.166404</v>
+      </c>
+      <c r="N7">
+        <v>99.499212</v>
+      </c>
+      <c r="O7">
+        <v>0.4570493141236298</v>
+      </c>
+      <c r="P7">
+        <v>0.4570493141236298</v>
+      </c>
+      <c r="Q7">
+        <v>1609.7468957952</v>
+      </c>
+      <c r="R7">
+        <v>14487.7220621568</v>
+      </c>
+      <c r="S7">
+        <v>0.3309071128916237</v>
+      </c>
+      <c r="T7">
+        <v>0.3309071128916237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>5.07167491620001</v>
-      </c>
-      <c r="H7">
-        <v>5.07167491620001</v>
-      </c>
-      <c r="I7">
-        <v>0.08890754365267219</v>
-      </c>
-      <c r="J7">
-        <v>0.08890754365267219</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>33.600399231937</v>
-      </c>
-      <c r="N7">
-        <v>33.600399231937</v>
-      </c>
-      <c r="O7">
-        <v>0.5077387654565746</v>
-      </c>
-      <c r="P7">
-        <v>0.5077387654565746</v>
-      </c>
-      <c r="Q7">
-        <v>170.4103019589209</v>
-      </c>
-      <c r="R7">
-        <v>170.4103019589209</v>
-      </c>
-      <c r="S7">
-        <v>0.04514180645398429</v>
-      </c>
-      <c r="T7">
-        <v>0.04514180645398429</v>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>48.53546666666667</v>
+      </c>
+      <c r="H8">
+        <v>145.6064</v>
+      </c>
+      <c r="I8">
+        <v>0.7240074597335789</v>
+      </c>
+      <c r="J8">
+        <v>0.7240074597335789</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>37.54595066666666</v>
+      </c>
+      <c r="N8">
+        <v>112.637852</v>
+      </c>
+      <c r="O8">
+        <v>0.5174016152103689</v>
+      </c>
+      <c r="P8">
+        <v>0.5174016152103689</v>
+      </c>
+      <c r="Q8">
+        <v>1822.310237050311</v>
+      </c>
+      <c r="R8">
+        <v>16400.7921334528</v>
+      </c>
+      <c r="S8">
+        <v>0.3746026290905098</v>
+      </c>
+      <c r="T8">
+        <v>0.3746026290905098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>48.53546666666667</v>
+      </c>
+      <c r="H9">
+        <v>145.6064</v>
+      </c>
+      <c r="I9">
+        <v>0.7240074597335789</v>
+      </c>
+      <c r="J9">
+        <v>0.7240074597335789</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.636316666666667</v>
+      </c>
+      <c r="N9">
+        <v>4.90895</v>
+      </c>
+      <c r="O9">
+        <v>0.02254924622485646</v>
+      </c>
+      <c r="P9">
+        <v>0.02254924622485645</v>
+      </c>
+      <c r="Q9">
+        <v>79.41939303111111</v>
+      </c>
+      <c r="R9">
+        <v>714.77453728</v>
+      </c>
+      <c r="S9">
+        <v>0.01632582247816532</v>
+      </c>
+      <c r="T9">
+        <v>0.01632582247816532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H10">
+        <v>43.755152</v>
+      </c>
+      <c r="I10">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J10">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2176863333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.6530590000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.002999824441144956</v>
+      </c>
+      <c r="P10">
+        <v>0.002999824441144956</v>
+      </c>
+      <c r="Q10">
+        <v>3.174966201107556</v>
+      </c>
+      <c r="R10">
+        <v>28.57469580996801</v>
+      </c>
+      <c r="S10">
+        <v>0.0006526609256904277</v>
+      </c>
+      <c r="T10">
+        <v>0.0006526609256904277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H11">
+        <v>43.755152</v>
+      </c>
+      <c r="I11">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J11">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>33.166404</v>
+      </c>
+      <c r="N11">
+        <v>99.499212</v>
+      </c>
+      <c r="O11">
+        <v>0.4570493141236298</v>
+      </c>
+      <c r="P11">
+        <v>0.4570493141236298</v>
+      </c>
+      <c r="Q11">
+        <v>483.733682771136</v>
+      </c>
+      <c r="R11">
+        <v>4353.603144940224</v>
+      </c>
+      <c r="S11">
+        <v>0.09943856192072709</v>
+      </c>
+      <c r="T11">
+        <v>0.09943856192072709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H12">
+        <v>43.755152</v>
+      </c>
+      <c r="I12">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J12">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>37.54595066666666</v>
+      </c>
+      <c r="N12">
+        <v>112.637852</v>
+      </c>
+      <c r="O12">
+        <v>0.5174016152103689</v>
+      </c>
+      <c r="P12">
+        <v>0.5174016152103689</v>
+      </c>
+      <c r="Q12">
+        <v>547.6095928015004</v>
+      </c>
+      <c r="R12">
+        <v>4928.486335213504</v>
+      </c>
+      <c r="S12">
+        <v>0.1125691932185321</v>
+      </c>
+      <c r="T12">
+        <v>0.1125691932185321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.58505066666667</v>
+      </c>
+      <c r="H13">
+        <v>43.755152</v>
+      </c>
+      <c r="I13">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="J13">
+        <v>0.2175663737979692</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>1.636316666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.90895</v>
+      </c>
+      <c r="O13">
+        <v>0.02254924622485646</v>
+      </c>
+      <c r="P13">
+        <v>0.02254924622485645</v>
+      </c>
+      <c r="Q13">
+        <v>23.86576149004445</v>
+      </c>
+      <c r="R13">
+        <v>214.7918534104</v>
+      </c>
+      <c r="S13">
+        <v>0.004905957733019567</v>
+      </c>
+      <c r="T13">
+        <v>0.004905957733019566</v>
       </c>
     </row>
   </sheetData>
